--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1755277.443119043</v>
+        <v>1754875.553802782</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241946.9810785736</v>
+        <v>241946.9810785742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.029273656</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.56291472733604</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -719,13 +719,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>281.6558207155709</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>126.3861071176826</v>
+        <v>196.0781524812662</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>37.76353774383347</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>119.4466896880325</v>
+        <v>355.9138300313033</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>82.94482095040932</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>42.05373589612832</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>67.06842959401256</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>50.77333445464502</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>76.47369209631</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -1196,10 +1196,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2133463336629</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>71.56801996631737</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.77333445464505</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>145.8351811928814</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.8016135680806</v>
+        <v>280.8016135680807</v>
       </c>
       <c r="C11" t="n">
-        <v>230.0825498471647</v>
+        <v>268.8129305257624</v>
       </c>
       <c r="D11" t="n">
-        <v>259.7942345702903</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>281.5363721401959</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>300.7081882281731</v>
+        <v>201.8703582977493</v>
       </c>
       <c r="G11" t="n">
         <v>302.6414561255956</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>220.1915711039055</v>
       </c>
       <c r="I11" t="n">
-        <v>61.78753624853363</v>
+        <v>61.78753624853366</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.05519506119126</v>
+        <v>76.05519506119128</v>
       </c>
       <c r="T11" t="n">
         <v>112.8138662515406</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>143.0349923683876</v>
       </c>
       <c r="V11" t="n">
-        <v>224.3079908082597</v>
+        <v>224.3079908082598</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>249.6080902862167</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>268.9083485189633</v>
       </c>
       <c r="Y11" t="n">
-        <v>280.3049463151621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>112.5144220076926</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>127.8326629072948</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.6417684822798</v>
+        <v>32.60572990073405</v>
       </c>
       <c r="C13" t="n">
-        <v>58.61831928817818</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>42.23968368575657</v>
+        <v>42.2396836857566</v>
       </c>
       <c r="E13" t="n">
-        <v>41.18743354153602</v>
+        <v>41.18743354153605</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.65435786972236</v>
       </c>
       <c r="G13" t="n">
-        <v>57.92906059107017</v>
+        <v>57.9290605910702</v>
       </c>
       <c r="H13" t="n">
-        <v>48.47742821376059</v>
+        <v>48.47742821376062</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45952339858994</v>
+        <v>33.45952339858997</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.72507301700725</v>
+        <v>38.72507301700728</v>
       </c>
       <c r="S13" t="n">
         <v>102.271174415591</v>
       </c>
       <c r="T13" t="n">
-        <v>121.5456730977196</v>
+        <v>121.5456730977197</v>
       </c>
       <c r="U13" t="n">
         <v>175.0168465610328</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.8016135680806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>268.8129305257623</v>
@@ -1616,16 +1616,16 @@
         <v>281.5363721401959</v>
       </c>
       <c r="F14" t="n">
-        <v>300.708188228173</v>
+        <v>300.7081882281731</v>
       </c>
       <c r="G14" t="n">
-        <v>302.6414561255955</v>
+        <v>302.6414561255956</v>
       </c>
       <c r="H14" t="n">
-        <v>166.5678778504226</v>
+        <v>220.1915711039055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.78753624853363</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.05519506119124</v>
+        <v>76.05519506119126</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>112.8138662515406</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>224.3079908082597</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>249.6080902862166</v>
+        <v>249.6080902862167</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.8845086227827</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>16.31322345267275</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1743,7 +1743,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>143.4864109000538</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.41832444277769</v>
+        <v>72.4183244427777</v>
       </c>
       <c r="C16" t="n">
-        <v>58.61831928817817</v>
+        <v>58.61831928817818</v>
       </c>
       <c r="D16" t="n">
-        <v>42.23968368575656</v>
+        <v>42.23968368575657</v>
       </c>
       <c r="E16" t="n">
-        <v>41.18743354153601</v>
+        <v>41.18743354153602</v>
       </c>
       <c r="F16" t="n">
-        <v>41.65435786972232</v>
+        <v>41.65435786972233</v>
       </c>
       <c r="G16" t="n">
-        <v>57.92906059107015</v>
+        <v>57.92906059107017</v>
       </c>
       <c r="H16" t="n">
-        <v>48.47742821376058</v>
+        <v>48.47742821376059</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45952339858992</v>
+        <v>33.45952339858994</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.72507301700723</v>
+        <v>38.72507301700725</v>
       </c>
       <c r="S16" t="n">
-        <v>102.271174415591</v>
+        <v>3.84026058536989</v>
       </c>
       <c r="T16" t="n">
         <v>121.5456730977196</v>
@@ -1822,16 +1822,16 @@
         <v>175.0168465610328</v>
       </c>
       <c r="V16" t="n">
-        <v>50.39554701218218</v>
+        <v>148.8264608424033</v>
       </c>
       <c r="W16" t="n">
-        <v>173.9933469130165</v>
+        <v>173.9933469130166</v>
       </c>
       <c r="X16" t="n">
         <v>119.6384489088197</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.5133166648873</v>
+        <v>110.5133166648874</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>219.4367213710092</v>
       </c>
       <c r="C17" t="n">
-        <v>207.448038328691</v>
+        <v>207.4480383286909</v>
       </c>
       <c r="D17" t="n">
-        <v>198.429342373219</v>
+        <v>198.4293423732189</v>
       </c>
       <c r="E17" t="n">
-        <v>220.1714799431245</v>
+        <v>220.1714799431244</v>
       </c>
       <c r="F17" t="n">
-        <v>239.3432960311017</v>
+        <v>239.3432960311016</v>
       </c>
       <c r="G17" t="n">
-        <v>241.2765639285242</v>
+        <v>241.2765639285241</v>
       </c>
       <c r="H17" t="n">
-        <v>158.8266789068341</v>
+        <v>158.826678906834</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4226440514622425</v>
+        <v>0.4226440514621572</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.69030286411987</v>
+        <v>14.69030286411979</v>
       </c>
       <c r="T17" t="n">
-        <v>51.44897405446923</v>
+        <v>51.44897405446915</v>
       </c>
       <c r="U17" t="n">
-        <v>81.67010017131619</v>
+        <v>81.67010017131611</v>
       </c>
       <c r="V17" t="n">
-        <v>162.9430986111884</v>
+        <v>162.9430986111883</v>
       </c>
       <c r="W17" t="n">
-        <v>188.2431980891453</v>
+        <v>188.2431980891452</v>
       </c>
       <c r="X17" t="n">
-        <v>207.5434563218919</v>
+        <v>207.5434563218918</v>
       </c>
       <c r="Y17" t="n">
         <v>218.9400541180906</v>
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>16.31322345267364</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -1983,7 +1983,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>156.2774546529271</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.05343224570632</v>
+        <v>11.05343224570623</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.90628221851961</v>
+        <v>40.90628221851952</v>
       </c>
       <c r="T19" t="n">
-        <v>60.18078090064824</v>
+        <v>60.18078090064816</v>
       </c>
       <c r="U19" t="n">
-        <v>113.6519543639614</v>
+        <v>113.6519543639613</v>
       </c>
       <c r="V19" t="n">
-        <v>87.46156864533191</v>
+        <v>87.46156864533182</v>
       </c>
       <c r="W19" t="n">
-        <v>112.6284547159452</v>
+        <v>112.6284547159451</v>
       </c>
       <c r="X19" t="n">
-        <v>58.27355671174828</v>
+        <v>58.2735567117482</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.14842446781597</v>
+        <v>49.14842446781589</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>219.4367213710092</v>
       </c>
       <c r="C20" t="n">
-        <v>207.448038328691</v>
+        <v>207.4480383286909</v>
       </c>
       <c r="D20" t="n">
-        <v>198.429342373219</v>
+        <v>198.4293423732189</v>
       </c>
       <c r="E20" t="n">
-        <v>220.1714799431245</v>
+        <v>220.1714799431244</v>
       </c>
       <c r="F20" t="n">
-        <v>239.3432960311017</v>
+        <v>239.3432960311016</v>
       </c>
       <c r="G20" t="n">
-        <v>241.2765639285242</v>
+        <v>241.2765639285241</v>
       </c>
       <c r="H20" t="n">
-        <v>158.8266789068342</v>
+        <v>158.826678906834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4226440514622425</v>
+        <v>0.4226440514621572</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.69030286411987</v>
+        <v>14.69030286411979</v>
       </c>
       <c r="T20" t="n">
-        <v>51.44897405446923</v>
+        <v>51.44897405446915</v>
       </c>
       <c r="U20" t="n">
-        <v>81.67010017131619</v>
+        <v>81.67010017131611</v>
       </c>
       <c r="V20" t="n">
-        <v>162.9430986111884</v>
+        <v>162.9430986111883</v>
       </c>
       <c r="W20" t="n">
-        <v>188.2431980891453</v>
+        <v>188.2431980891464</v>
       </c>
       <c r="X20" t="n">
-        <v>207.5434563218919</v>
+        <v>207.5434563218918</v>
       </c>
       <c r="Y20" t="n">
         <v>218.9400541180906</v>
@@ -2169,7 +2169,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>50.72160464352863</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
@@ -2211,7 +2211,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>104.1729973695784</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.05343224570632</v>
+        <v>11.05343224570623</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.90628221851961</v>
+        <v>40.90628221851952</v>
       </c>
       <c r="T22" t="n">
-        <v>60.18078090064824</v>
+        <v>60.18078090064816</v>
       </c>
       <c r="U22" t="n">
-        <v>113.6519543639614</v>
+        <v>113.6519543639613</v>
       </c>
       <c r="V22" t="n">
-        <v>87.46156864533191</v>
+        <v>87.46156864533182</v>
       </c>
       <c r="W22" t="n">
-        <v>112.6284547159452</v>
+        <v>112.6284547159451</v>
       </c>
       <c r="X22" t="n">
-        <v>58.27355671174828</v>
+        <v>58.2735567117482</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.14842446781597</v>
+        <v>49.14842446781589</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2318,25 @@
         <v>219.4367213710092</v>
       </c>
       <c r="C23" t="n">
-        <v>207.448038328691</v>
+        <v>207.4480383286909</v>
       </c>
       <c r="D23" t="n">
-        <v>198.429342373219</v>
+        <v>198.4293423732189</v>
       </c>
       <c r="E23" t="n">
-        <v>220.1714799431245</v>
+        <v>220.1714799431244</v>
       </c>
       <c r="F23" t="n">
-        <v>239.3432960311017</v>
+        <v>239.3432960311016</v>
       </c>
       <c r="G23" t="n">
-        <v>241.2765639285242</v>
+        <v>241.2765639285241</v>
       </c>
       <c r="H23" t="n">
-        <v>158.8266789068341</v>
+        <v>158.826678906834</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4226440514622425</v>
+        <v>0.4226440514621572</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.69030286411987</v>
+        <v>14.69030286411979</v>
       </c>
       <c r="T23" t="n">
-        <v>51.44897405446923</v>
+        <v>51.44897405446915</v>
       </c>
       <c r="U23" t="n">
-        <v>81.67010017131619</v>
+        <v>81.67010017131611</v>
       </c>
       <c r="V23" t="n">
-        <v>162.9430986111884</v>
+        <v>162.9430986111883</v>
       </c>
       <c r="W23" t="n">
-        <v>188.2431980891453</v>
+        <v>188.2431980891452</v>
       </c>
       <c r="X23" t="n">
-        <v>207.5434563218919</v>
+        <v>207.5434563218918</v>
       </c>
       <c r="Y23" t="n">
         <v>218.9400541180906</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>104.1729973695775</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2460,7 +2460,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>113.312562814889</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.05343224570632</v>
+        <v>11.05343224570623</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.90628221851961</v>
+        <v>40.90628221851952</v>
       </c>
       <c r="T25" t="n">
-        <v>60.18078090064824</v>
+        <v>60.18078090064816</v>
       </c>
       <c r="U25" t="n">
-        <v>113.6519543639614</v>
+        <v>113.6519543639613</v>
       </c>
       <c r="V25" t="n">
-        <v>87.46156864533191</v>
+        <v>87.46156864533182</v>
       </c>
       <c r="W25" t="n">
-        <v>112.6284547159452</v>
+        <v>112.6284547159451</v>
       </c>
       <c r="X25" t="n">
-        <v>58.27355671174828</v>
+        <v>58.2735567117482</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.14842446781597</v>
+        <v>49.14842446781589</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980902</v>
+        <v>46.18011474027415</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
         <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>166.7883532456675</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
         <v>276.1762713617116</v>
@@ -2646,13 +2646,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914447</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2792,25 +2792,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>202.1791790144953</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2849,16 +2849,16 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>118.0715758306083</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2937,7 +2937,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>176.030621801413</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.7898580267162</v>
+        <v>248.7898580267161</v>
       </c>
       <c r="C32" t="n">
-        <v>236.801174984398</v>
+        <v>236.8011749843979</v>
       </c>
       <c r="D32" t="n">
-        <v>227.782479028926</v>
+        <v>227.7824790289258</v>
       </c>
       <c r="E32" t="n">
-        <v>249.5246165988315</v>
+        <v>249.5246165988314</v>
       </c>
       <c r="F32" t="n">
-        <v>268.6964326868086</v>
+        <v>268.6964326868085</v>
       </c>
       <c r="G32" t="n">
-        <v>270.6297005842312</v>
+        <v>270.629700584231</v>
       </c>
       <c r="H32" t="n">
-        <v>188.1798155625411</v>
+        <v>188.179815562541</v>
       </c>
       <c r="I32" t="n">
-        <v>29.77578070716925</v>
+        <v>29.77578070716913</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.04343951982688</v>
+        <v>44.04343951982676</v>
       </c>
       <c r="T32" t="n">
-        <v>80.80211071017624</v>
+        <v>80.80211071017612</v>
       </c>
       <c r="U32" t="n">
-        <v>111.0232368270232</v>
+        <v>111.0232368270231</v>
       </c>
       <c r="V32" t="n">
-        <v>192.2962352668954</v>
+        <v>192.2962352668953</v>
       </c>
       <c r="W32" t="n">
-        <v>217.5963347448523</v>
+        <v>217.5963347448522</v>
       </c>
       <c r="X32" t="n">
-        <v>236.8965929775989</v>
+        <v>236.8965929775988</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.2931907737976</v>
+        <v>248.2931907737975</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326555</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3168,7 +3168,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>224.3372187935196</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.40656890141332</v>
+        <v>40.40656890141321</v>
       </c>
       <c r="C34" t="n">
-        <v>26.6065637468138</v>
+        <v>26.60656374681369</v>
       </c>
       <c r="D34" t="n">
-        <v>10.22792814439219</v>
+        <v>10.22792814439208</v>
       </c>
       <c r="E34" t="n">
-        <v>9.175678000171644</v>
+        <v>9.17567800017153</v>
       </c>
       <c r="F34" t="n">
-        <v>9.642602328357953</v>
+        <v>9.642602328357839</v>
       </c>
       <c r="G34" t="n">
-        <v>25.91730504970579</v>
+        <v>25.91730504970567</v>
       </c>
       <c r="H34" t="n">
-        <v>16.46567267239621</v>
+        <v>16.4656726723961</v>
       </c>
       <c r="I34" t="n">
-        <v>1.447767857225557</v>
+        <v>1.447767857225443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.713317475642867</v>
+        <v>6.713317475642754</v>
       </c>
       <c r="S34" t="n">
-        <v>70.25941887422661</v>
+        <v>70.2594188742265</v>
       </c>
       <c r="T34" t="n">
-        <v>89.53391755635525</v>
+        <v>89.53391755635514</v>
       </c>
       <c r="U34" t="n">
-        <v>143.0050910196684</v>
+        <v>143.0050910196683</v>
       </c>
       <c r="V34" t="n">
-        <v>116.8147053010389</v>
+        <v>116.8147053010388</v>
       </c>
       <c r="W34" t="n">
-        <v>141.9815913716522</v>
+        <v>141.9815913716521</v>
       </c>
       <c r="X34" t="n">
-        <v>87.62669336745529</v>
+        <v>87.62669336745518</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.50156112352298</v>
+        <v>78.50156112352286</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3399,7 +3399,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3639,7 +3639,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S45" t="n">
-        <v>136.7060008318832</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798.9973151886338</v>
+        <v>62.13563674553902</v>
       </c>
       <c r="C2" t="n">
-        <v>798.9973151886338</v>
+        <v>62.13563674553902</v>
       </c>
       <c r="D2" t="n">
-        <v>798.9973151886338</v>
+        <v>62.13563674553902</v>
       </c>
       <c r="E2" t="n">
-        <v>798.9973151886338</v>
+        <v>62.13563674553902</v>
       </c>
       <c r="F2" t="n">
-        <v>788.8865285392083</v>
+        <v>52.0248500961134</v>
       </c>
       <c r="G2" t="n">
-        <v>372.7825419933962</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="H2" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I2" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J2" t="n">
-        <v>111.9598118635111</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="K2" t="n">
-        <v>352.1001839082938</v>
+        <v>280.1016396354882</v>
       </c>
       <c r="L2" t="n">
-        <v>699.9855569932402</v>
+        <v>627.9870127204344</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.224723246328</v>
+        <v>1021.226178973522</v>
       </c>
       <c r="N2" t="n">
-        <v>1464.901898606384</v>
+        <v>1370.469644919848</v>
       </c>
       <c r="O2" t="n">
-        <v>1769.906483079218</v>
+        <v>1675.474229392682</v>
       </c>
       <c r="P2" t="n">
-        <v>1998.063379535271</v>
+        <v>1903.631125848735</v>
       </c>
       <c r="Q2" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R2" t="n">
-        <v>1960.121041426851</v>
+        <v>1907.425093031125</v>
       </c>
       <c r="S2" t="n">
-        <v>1772.892066057205</v>
+        <v>1907.425093031125</v>
       </c>
       <c r="T2" t="n">
-        <v>1772.892066057205</v>
+        <v>1683.066146762136</v>
       </c>
       <c r="U2" t="n">
-        <v>1518.006729771199</v>
+        <v>1428.180810476131</v>
       </c>
       <c r="V2" t="n">
-        <v>1181.02745566714</v>
+        <v>1091.201536372072</v>
       </c>
       <c r="W2" t="n">
-        <v>1181.02745566714</v>
+        <v>728.6666062296729</v>
       </c>
       <c r="X2" t="n">
-        <v>798.9973151886338</v>
+        <v>346.6364657511662</v>
       </c>
       <c r="Y2" t="n">
-        <v>798.9973151886338</v>
+        <v>62.13563674553902</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.2740280927495</v>
+        <v>780.4353910829616</v>
       </c>
       <c r="C3" t="n">
-        <v>757.5703553337042</v>
+        <v>618.7317183239163</v>
       </c>
       <c r="D3" t="n">
         <v>618.7317183239163</v>
@@ -4401,58 +4401,58 @@
         <v>208.2814103539464</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3435529006444</v>
+        <v>108.3435529006445</v>
       </c>
       <c r="I3" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J3" t="n">
-        <v>39.96126759070543</v>
+        <v>100.2154141238116</v>
       </c>
       <c r="K3" t="n">
-        <v>269.4518201508941</v>
+        <v>329.7059666840003</v>
       </c>
       <c r="L3" t="n">
-        <v>635.2736653210097</v>
+        <v>695.527811854116</v>
       </c>
       <c r="M3" t="n">
-        <v>1043.675144039</v>
+        <v>695.527811854116</v>
       </c>
       <c r="N3" t="n">
-        <v>1538.19583047398</v>
+        <v>1145.99587968983</v>
       </c>
       <c r="O3" t="n">
         <v>1538.19583047398</v>
       </c>
       <c r="P3" t="n">
-        <v>1840.291749749677</v>
+        <v>1840.291749749678</v>
       </c>
       <c r="Q3" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R3" t="n">
-        <v>1938.279110630217</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="S3" t="n">
-        <v>1785.479623642957</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="T3" t="n">
-        <v>1596.794519808943</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="U3" t="n">
-        <v>1469.131785346637</v>
+        <v>1800.004639655205</v>
       </c>
       <c r="V3" t="n">
-        <v>1469.131785346637</v>
+        <v>1571.609017103539</v>
       </c>
       <c r="W3" t="n">
-        <v>1469.131785346637</v>
+        <v>1330.293148336849</v>
       </c>
       <c r="X3" t="n">
-        <v>1271.214797224432</v>
+        <v>1132.376160214644</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.69347087401</v>
+        <v>939.8548338642224</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="C4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="D4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="E4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="F4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="G4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="H4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="K4" t="n">
         <v>73.56545533534884</v>
@@ -4507,31 +4507,31 @@
         <v>572.0205128366379</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.4831714903269</v>
+        <v>533.875525216604</v>
       </c>
       <c r="R4" t="n">
-        <v>383.9613901047051</v>
+        <v>533.875525216604</v>
       </c>
       <c r="S4" t="n">
-        <v>170.2516275083926</v>
+        <v>533.875525216604</v>
       </c>
       <c r="T4" t="n">
-        <v>39.96126759070543</v>
+        <v>300.6965720322829</v>
       </c>
       <c r="U4" t="n">
-        <v>39.96126759070543</v>
+        <v>300.6965720322829</v>
       </c>
       <c r="V4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="W4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="X4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>937.5465820926117</v>
+        <v>1176.402279409047</v>
       </c>
       <c r="C5" t="n">
-        <v>555.612823425419</v>
+        <v>794.4685207418543</v>
       </c>
       <c r="D5" t="n">
-        <v>182.7888586526426</v>
+        <v>421.6445559690778</v>
       </c>
       <c r="E5" t="n">
         <v>62.13563674553902</v>
@@ -4574,10 +4574,10 @@
         <v>699.9855569932402</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.224723246328</v>
+        <v>992.1382862321316</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.556081934044</v>
+        <v>1370.469644919847</v>
       </c>
       <c r="O5" t="n">
         <v>1675.474229392681</v>
@@ -4589,28 +4589,28 @@
         <v>1998.063379535271</v>
       </c>
       <c r="R5" t="n">
-        <v>1998.063379535271</v>
+        <v>1907.425093031125</v>
       </c>
       <c r="S5" t="n">
-        <v>1810.834404165626</v>
+        <v>1907.425093031125</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.475457896637</v>
+        <v>1907.425093031125</v>
       </c>
       <c r="U5" t="n">
-        <v>1331.590121610631</v>
+        <v>1907.425093031125</v>
       </c>
       <c r="V5" t="n">
-        <v>1331.590121610631</v>
+        <v>1570.445818927066</v>
       </c>
       <c r="W5" t="n">
-        <v>1331.590121610631</v>
+        <v>1570.445818927066</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.590121610631</v>
+        <v>1570.445818927066</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.590121610631</v>
+        <v>1570.445818927066</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.2740280927495</v>
+        <v>571.3142347273233</v>
       </c>
       <c r="C6" t="n">
-        <v>757.5703553337042</v>
+        <v>409.610561968278</v>
       </c>
       <c r="D6" t="n">
-        <v>618.7317183239163</v>
+        <v>270.7719249584901</v>
       </c>
       <c r="E6" t="n">
-        <v>471.7037083807875</v>
+        <v>123.7439150153613</v>
       </c>
       <c r="F6" t="n">
-        <v>337.0099103306618</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="G6" t="n">
-        <v>208.2814103539464</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="H6" t="n">
-        <v>108.3435529006444</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="I6" t="n">
         <v>39.96126759070543</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2154141238116</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="K6" t="n">
-        <v>100.2154141238116</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="L6" t="n">
-        <v>166.4418397446229</v>
+        <v>405.783112760821</v>
       </c>
       <c r="M6" t="n">
         <v>651.4751932548494</v>
@@ -4686,10 +4686,10 @@
         <v>1121.171991981211</v>
       </c>
       <c r="X6" t="n">
-        <v>1078.69347087401</v>
+        <v>923.2550038590053</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.69347087401</v>
+        <v>730.7336775085842</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="C7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="D7" t="n">
-        <v>252.0275204152139</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="E7" t="n">
-        <v>100.0185061765327</v>
+        <v>520.7343164178045</v>
       </c>
       <c r="F7" t="n">
-        <v>100.0185061765327</v>
+        <v>368.2536614435816</v>
       </c>
       <c r="G7" t="n">
-        <v>100.0185061765327</v>
+        <v>199.3339128114316</v>
       </c>
       <c r="H7" t="n">
-        <v>100.0185061765327</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="I7" t="n">
-        <v>100.0185061765327</v>
+        <v>39.96126759070543</v>
       </c>
       <c r="J7" t="n">
         <v>39.96126759070543</v>
@@ -4744,31 +4744,31 @@
         <v>572.0205128366379</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.4831714903269</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="R7" t="n">
-        <v>533.4831714903269</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="S7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="T7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="U7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="V7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="W7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="X7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="Y7" t="n">
-        <v>319.7734088940144</v>
+        <v>572.0205128366379</v>
       </c>
     </row>
     <row r="8">
@@ -4826,25 +4826,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1689.624883421327</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1434.739547135321</v>
+        <v>1933.328364923178</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.760273031262</v>
+        <v>1596.34909081912</v>
       </c>
       <c r="W8" t="n">
-        <v>735.225342888863</v>
+        <v>1233.814160676721</v>
       </c>
       <c r="X8" t="n">
-        <v>458.242164774052</v>
+        <v>851.784020198214</v>
       </c>
       <c r="Y8" t="n">
         <v>458.242164774052</v>
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>703.195773126389</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>630.9048438674826</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D9" t="n">
-        <v>492.0662068576946</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E9" t="n">
-        <v>345.0381969145658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4920,13 +4920,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1253.053530380276</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1055.136542258071</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.6152159076499</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E10" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0814946870265</v>
+        <v>421.6028463729088</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0814946870265</v>
+        <v>252.6830977407588</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>93.31045252003261</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>388.2378961696274</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>388.2378961696274</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>388.2378961696274</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>388.2378961696274</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>388.2378961696274</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1500.758616161656</v>
+        <v>1115.66115670872</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.352000154418</v>
+        <v>844.132944056434</v>
       </c>
       <c r="D11" t="n">
-        <v>1005.933581396549</v>
+        <v>844.132944056434</v>
       </c>
       <c r="E11" t="n">
-        <v>721.5534075175634</v>
+        <v>844.132944056434</v>
       </c>
       <c r="F11" t="n">
-        <v>417.8077628426412</v>
+        <v>640.2234912304245</v>
       </c>
       <c r="G11" t="n">
-        <v>112.1093223117365</v>
+        <v>334.5250506995198</v>
       </c>
       <c r="H11" t="n">
         <v>112.1093223117365</v>
       </c>
       <c r="I11" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J11" t="n">
-        <v>229.9046894574563</v>
+        <v>173.0680451384037</v>
       </c>
       <c r="K11" t="n">
-        <v>470.045061502239</v>
+        <v>521.4168928323971</v>
       </c>
       <c r="L11" t="n">
-        <v>817.9304345871853</v>
+        <v>977.5107415665541</v>
       </c>
       <c r="M11" t="n">
-        <v>1211.169600840273</v>
+        <v>1370.749907819642</v>
       </c>
       <c r="N11" t="n">
-        <v>1589.500959527989</v>
+        <v>1749.081266507358</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.714019650034</v>
+        <v>2054.085850980191</v>
       </c>
       <c r="P11" t="n">
-        <v>2262.868856389749</v>
+        <v>2390.451223085455</v>
       </c>
       <c r="Q11" t="n">
-        <v>2465.509585725496</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R11" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S11" t="n">
-        <v>2408.060047417255</v>
+        <v>2408.060047417254</v>
       </c>
       <c r="T11" t="n">
         <v>2294.106647163173</v>
       </c>
       <c r="U11" t="n">
-        <v>2294.106647163173</v>
+        <v>2149.626856892074</v>
       </c>
       <c r="V11" t="n">
-        <v>2067.532919074022</v>
+        <v>1923.053128802923</v>
       </c>
       <c r="W11" t="n">
-        <v>2067.532919074022</v>
+        <v>1670.923744675431</v>
       </c>
       <c r="X11" t="n">
-        <v>2067.532919074022</v>
+        <v>1399.299150211832</v>
       </c>
       <c r="Y11" t="n">
-        <v>1784.396609664768</v>
+        <v>1399.299150211832</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>845.550576071731</v>
+        <v>929.0104300374838</v>
       </c>
       <c r="C12" t="n">
-        <v>683.8469033126858</v>
+        <v>767.3067572784386</v>
       </c>
       <c r="D12" t="n">
-        <v>545.0082663028978</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E12" t="n">
-        <v>397.980256359769</v>
+        <v>481.4401103255219</v>
       </c>
       <c r="F12" t="n">
-        <v>263.2864583096434</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G12" t="n">
-        <v>149.6355269887418</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H12" t="n">
-        <v>49.69766953543986</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I12" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J12" t="n">
         <v>109.951816068546</v>
       </c>
       <c r="K12" t="n">
-        <v>270.6951321230869</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L12" t="n">
-        <v>636.5169772932026</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M12" t="n">
-        <v>1121.550330803429</v>
+        <v>1121.550330803428</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.815976926551</v>
+        <v>1632.81597692655</v>
       </c>
       <c r="O12" t="n">
-        <v>2025.015927710702</v>
+        <v>2025.015927710701</v>
       </c>
       <c r="P12" t="n">
-        <v>2327.111846986399</v>
+        <v>2327.111846986398</v>
       </c>
       <c r="Q12" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R12" t="n">
-        <v>2425.099207866939</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S12" t="n">
-        <v>2272.299720879679</v>
+        <v>2355.759574845432</v>
       </c>
       <c r="T12" t="n">
-        <v>2083.614617045665</v>
+        <v>2167.074471011417</v>
       </c>
       <c r="U12" t="n">
-        <v>1865.119824643975</v>
+        <v>1948.579678609727</v>
       </c>
       <c r="V12" t="n">
-        <v>1636.724202092309</v>
+        <v>1720.184056058061</v>
       </c>
       <c r="W12" t="n">
-        <v>1395.408333325619</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X12" t="n">
-        <v>1197.491345203413</v>
+        <v>1280.951199169166</v>
       </c>
       <c r="Y12" t="n">
-        <v>1004.970018852992</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1468.548013233855</v>
+        <v>317.3213940813347</v>
       </c>
       <c r="C13" t="n">
-        <v>1409.337589710443</v>
+        <v>317.3213940813347</v>
       </c>
       <c r="D13" t="n">
-        <v>1366.671242553113</v>
+        <v>274.6550469240049</v>
       </c>
       <c r="E13" t="n">
-        <v>1325.067774329339</v>
+        <v>233.0515787002311</v>
       </c>
       <c r="F13" t="n">
-        <v>1325.067774329339</v>
+        <v>190.9764697409156</v>
       </c>
       <c r="G13" t="n">
-        <v>1266.553571712097</v>
+        <v>132.4622671236729</v>
       </c>
       <c r="H13" t="n">
-        <v>1217.586472506278</v>
+        <v>83.49516791785396</v>
       </c>
       <c r="I13" t="n">
-        <v>1183.788974123864</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J13" t="n">
-        <v>1233.135350235105</v>
+        <v>99.04404564668124</v>
       </c>
       <c r="K13" t="n">
-        <v>1374.948013628959</v>
+        <v>240.8567090405353</v>
       </c>
       <c r="L13" t="n">
-        <v>1583.763568678429</v>
+        <v>449.6722640900056</v>
       </c>
       <c r="M13" t="n">
-        <v>1809.965550455242</v>
+        <v>675.874245866818</v>
       </c>
       <c r="N13" t="n">
-        <v>2036.596367854053</v>
+        <v>902.5050632656291</v>
       </c>
       <c r="O13" t="n">
-        <v>2243.268489998954</v>
+        <v>1109.17718541053</v>
       </c>
       <c r="P13" t="n">
-        <v>2414.445449376302</v>
+        <v>1280.354144787878</v>
       </c>
       <c r="Q13" t="n">
-        <v>2484.883476771993</v>
+        <v>1350.792172183569</v>
       </c>
       <c r="R13" t="n">
-        <v>2445.767241401279</v>
+        <v>1311.675936812855</v>
       </c>
       <c r="S13" t="n">
-        <v>2342.463024819874</v>
+        <v>1208.37172023145</v>
       </c>
       <c r="T13" t="n">
-        <v>2219.68961765046</v>
+        <v>1085.598313062036</v>
       </c>
       <c r="U13" t="n">
-        <v>2042.904924154467</v>
+        <v>908.8136195660435</v>
       </c>
       <c r="V13" t="n">
-        <v>1892.575165727797</v>
+        <v>758.4838611393736</v>
       </c>
       <c r="W13" t="n">
-        <v>1716.824310260103</v>
+        <v>582.7330056716801</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.977392170388</v>
+        <v>461.8860875819632</v>
       </c>
       <c r="Y13" t="n">
-        <v>1484.347779377572</v>
+        <v>350.2564747891475</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1645.7189416975</v>
+        <v>1762.295941194486</v>
       </c>
       <c r="C14" t="n">
-        <v>1374.190729045215</v>
+        <v>1490.767728542201</v>
       </c>
       <c r="D14" t="n">
-        <v>1111.772310287346</v>
+        <v>1228.349309784332</v>
       </c>
       <c r="E14" t="n">
-        <v>827.3921364083599</v>
+        <v>943.9691359053465</v>
       </c>
       <c r="F14" t="n">
-        <v>523.6464917334376</v>
+        <v>640.2234912304243</v>
       </c>
       <c r="G14" t="n">
-        <v>217.9480512025334</v>
+        <v>334.5250506995197</v>
       </c>
       <c r="H14" t="n">
-        <v>49.69766953543986</v>
+        <v>112.1093223117364</v>
       </c>
       <c r="I14" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6962138082455</v>
+        <v>229.9046894574562</v>
       </c>
       <c r="K14" t="n">
         <v>470.045061502239</v>
@@ -5285,13 +5285,13 @@
         <v>817.9304345871853</v>
       </c>
       <c r="M14" t="n">
-        <v>1319.378076489484</v>
+        <v>1211.169600840273</v>
       </c>
       <c r="N14" t="n">
         <v>1697.7094351772</v>
       </c>
       <c r="O14" t="n">
-        <v>2034.711959933695</v>
+        <v>2110.922495299244</v>
       </c>
       <c r="P14" t="n">
         <v>2371.077332038959</v>
@@ -5300,28 +5300,28 @@
         <v>2465.509585725496</v>
       </c>
       <c r="R14" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S14" t="n">
         <v>2408.060047417254</v>
       </c>
       <c r="T14" t="n">
-        <v>2408.060047417254</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="U14" t="n">
-        <v>2408.060047417254</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="V14" t="n">
-        <v>2181.486319328103</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="W14" t="n">
-        <v>1929.356935200612</v>
+        <v>2041.977263035681</v>
       </c>
       <c r="X14" t="n">
-        <v>1929.356935200612</v>
+        <v>2041.977263035681</v>
       </c>
       <c r="Y14" t="n">
-        <v>1929.356935200612</v>
+        <v>1762.295941194486</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>929.0104300374838</v>
+        <v>845.5505760717301</v>
       </c>
       <c r="C15" t="n">
-        <v>767.3067572784386</v>
+        <v>683.8469033126848</v>
       </c>
       <c r="D15" t="n">
-        <v>628.4681202686506</v>
+        <v>545.0082663028969</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4401103255219</v>
+        <v>397.9802563597681</v>
       </c>
       <c r="F15" t="n">
-        <v>346.7463122753962</v>
+        <v>263.2864583096425</v>
       </c>
       <c r="G15" t="n">
-        <v>218.0178122986808</v>
+        <v>134.5579583329271</v>
       </c>
       <c r="H15" t="n">
         <v>118.0799548453789</v>
       </c>
       <c r="I15" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J15" t="n">
         <v>109.951816068546</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4423686287347</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L15" t="n">
         <v>705.2642137988503</v>
@@ -5370,19 +5370,19 @@
         <v>1701.563213432199</v>
       </c>
       <c r="O15" t="n">
-        <v>2025.015927710701</v>
+        <v>2093.76316421635</v>
       </c>
       <c r="P15" t="n">
-        <v>2327.111846986399</v>
+        <v>2395.859083492047</v>
       </c>
       <c r="Q15" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R15" t="n">
         <v>2425.099207866938</v>
       </c>
       <c r="S15" t="n">
-        <v>2272.299720879679</v>
+        <v>2272.299720879678</v>
       </c>
       <c r="T15" t="n">
         <v>2083.614617045664</v>
@@ -5391,16 +5391,16 @@
         <v>1865.119824643974</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.184056058061</v>
+        <v>1636.724202092308</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.868187291371</v>
+        <v>1395.408333325618</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.951199169166</v>
+        <v>1197.491345203412</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.429872818745</v>
+        <v>1004.970018852991</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.5318176047467</v>
+        <v>376.5318176047468</v>
       </c>
       <c r="C16" t="n">
-        <v>317.3213940813344</v>
+        <v>317.3213940813345</v>
       </c>
       <c r="D16" t="n">
-        <v>274.6550469240045</v>
+        <v>274.6550469240046</v>
       </c>
       <c r="E16" t="n">
         <v>233.0515787002308</v>
@@ -5425,16 +5425,16 @@
         <v>190.9764697409153</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4622671236726</v>
+        <v>132.4622671236727</v>
       </c>
       <c r="H16" t="n">
-        <v>83.49516791785391</v>
+        <v>83.49516791785393</v>
       </c>
       <c r="I16" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J16" t="n">
-        <v>99.0440456466813</v>
+        <v>99.04404564668127</v>
       </c>
       <c r="K16" t="n">
         <v>240.8567090405354</v>
@@ -5443,10 +5443,10 @@
         <v>449.6722640900057</v>
       </c>
       <c r="M16" t="n">
-        <v>675.8742458668182</v>
+        <v>675.874245866818</v>
       </c>
       <c r="N16" t="n">
-        <v>902.5050632656294</v>
+        <v>902.5050632656291</v>
       </c>
       <c r="O16" t="n">
         <v>1109.17718541053</v>
@@ -5458,28 +5458,28 @@
         <v>1350.79217218357</v>
       </c>
       <c r="R16" t="n">
-        <v>1311.675936812854</v>
+        <v>1311.675936812855</v>
       </c>
       <c r="S16" t="n">
-        <v>1208.371720231449</v>
+        <v>1307.796885716522</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.598313062036</v>
+        <v>1185.023478547108</v>
       </c>
       <c r="U16" t="n">
-        <v>908.8136195660429</v>
+        <v>1008.238785051115</v>
       </c>
       <c r="V16" t="n">
-        <v>857.9090266244448</v>
+        <v>857.909026624445</v>
       </c>
       <c r="W16" t="n">
-        <v>682.1581711567515</v>
+        <v>682.1581711567516</v>
       </c>
       <c r="X16" t="n">
-        <v>561.3112530670345</v>
+        <v>561.3112530670347</v>
       </c>
       <c r="Y16" t="n">
-        <v>449.6816402742191</v>
+        <v>449.6816402742192</v>
       </c>
     </row>
     <row r="17">
@@ -5495,49 +5495,49 @@
         <v>1118.859290984193</v>
       </c>
       <c r="D17" t="n">
-        <v>918.4256118193254</v>
+        <v>918.4256118193251</v>
       </c>
       <c r="E17" t="n">
-        <v>696.030177533341</v>
+        <v>696.0301775333409</v>
       </c>
       <c r="F17" t="n">
         <v>454.2692724514201</v>
       </c>
       <c r="G17" t="n">
-        <v>210.5555715135168</v>
+        <v>210.555571513517</v>
       </c>
       <c r="H17" t="n">
-        <v>50.12458271873506</v>
+        <v>50.12458271873495</v>
       </c>
       <c r="I17" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J17" t="n">
-        <v>121.6962138082455</v>
+        <v>248.6086188401269</v>
       </c>
       <c r="K17" t="n">
-        <v>361.8365858530283</v>
+        <v>488.7489908849096</v>
       </c>
       <c r="L17" t="n">
-        <v>709.7219589379745</v>
+        <v>1005.594082894167</v>
       </c>
       <c r="M17" t="n">
-        <v>1102.961125191062</v>
+        <v>1398.833249147255</v>
       </c>
       <c r="N17" t="n">
-        <v>1481.292483878778</v>
+        <v>1777.164607834971</v>
       </c>
       <c r="O17" t="n">
-        <v>1913.209473383494</v>
+        <v>2082.169192307805</v>
       </c>
       <c r="P17" t="n">
-        <v>2310.326088763859</v>
+        <v>2310.326088763858</v>
       </c>
       <c r="Q17" t="n">
-        <v>2404.758342450396</v>
+        <v>2404.758342450395</v>
       </c>
       <c r="R17" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S17" t="n">
         <v>2470.044787010255</v>
@@ -5549,13 +5549,13 @@
         <v>2335.581075671078</v>
       </c>
       <c r="V17" t="n">
-        <v>2170.992087174928</v>
+        <v>2170.992087174929</v>
       </c>
       <c r="W17" t="n">
         <v>1980.847442640438</v>
       </c>
       <c r="X17" t="n">
-        <v>1771.20758776984</v>
+        <v>1771.207587769841</v>
       </c>
       <c r="Y17" t="n">
         <v>1550.056017953587</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>845.550576071731</v>
+        <v>929.0104300374838</v>
       </c>
       <c r="C18" t="n">
-        <v>683.8469033126858</v>
+        <v>767.3067572784386</v>
       </c>
       <c r="D18" t="n">
-        <v>545.0082663028978</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E18" t="n">
-        <v>397.980256359769</v>
+        <v>481.4401103255219</v>
       </c>
       <c r="F18" t="n">
-        <v>263.2864583096434</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G18" t="n">
-        <v>134.557958332928</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H18" t="n">
         <v>118.0799548453789</v>
       </c>
       <c r="I18" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J18" t="n">
         <v>109.951816068546</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4423686287347</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L18" t="n">
         <v>705.2642137988503</v>
@@ -5613,31 +5613,31 @@
         <v>2395.859083492047</v>
       </c>
       <c r="Q18" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R18" t="n">
-        <v>2425.099207866939</v>
+        <v>2425.099207866938</v>
       </c>
       <c r="S18" t="n">
-        <v>2272.299720879679</v>
+        <v>2272.299720879678</v>
       </c>
       <c r="T18" t="n">
-        <v>2083.614617045665</v>
+        <v>2083.614617045664</v>
       </c>
       <c r="U18" t="n">
-        <v>1865.119824643975</v>
+        <v>1865.119824643974</v>
       </c>
       <c r="V18" t="n">
-        <v>1636.724202092309</v>
+        <v>1636.724202092308</v>
       </c>
       <c r="W18" t="n">
-        <v>1395.408333325619</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X18" t="n">
-        <v>1197.491345203413</v>
+        <v>1280.951199169166</v>
       </c>
       <c r="Y18" t="n">
-        <v>1004.970018852992</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="C19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="D19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="E19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="F19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="G19" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="H19" t="n">
-        <v>49.69766953543986</v>
+        <v>56.3297922386753</v>
       </c>
       <c r="I19" t="n">
-        <v>49.69766953543986</v>
+        <v>56.3297922386753</v>
       </c>
       <c r="J19" t="n">
-        <v>49.69766953543986</v>
+        <v>56.3297922386753</v>
       </c>
       <c r="K19" t="n">
-        <v>89.93397998331939</v>
+        <v>89.93397998331871</v>
       </c>
       <c r="L19" t="n">
-        <v>190.5410593835789</v>
+        <v>190.5410593835782</v>
       </c>
       <c r="M19" t="n">
-        <v>308.5345655111806</v>
+        <v>308.5345655111799</v>
       </c>
       <c r="N19" t="n">
-        <v>426.956907260781</v>
+        <v>426.9569072607803</v>
       </c>
       <c r="O19" t="n">
-        <v>525.4205537564707</v>
+        <v>525.42055375647</v>
       </c>
       <c r="P19" t="n">
-        <v>588.3890374846085</v>
+        <v>588.3890374846078</v>
       </c>
       <c r="Q19" t="n">
-        <v>588.3890374846085</v>
+        <v>588.3890374846078</v>
       </c>
       <c r="R19" t="n">
-        <v>588.3890374846085</v>
+        <v>588.3890374846078</v>
       </c>
       <c r="S19" t="n">
-        <v>547.0695604962049</v>
+        <v>547.0695604962042</v>
       </c>
       <c r="T19" t="n">
-        <v>486.2808929197924</v>
+        <v>486.2808929197919</v>
       </c>
       <c r="U19" t="n">
-        <v>371.4809390168011</v>
+        <v>371.4809390168007</v>
       </c>
       <c r="V19" t="n">
-        <v>283.1359201831326</v>
+        <v>283.1359201831322</v>
       </c>
       <c r="W19" t="n">
-        <v>169.3698043084405</v>
+        <v>169.3698043084402</v>
       </c>
       <c r="X19" t="n">
-        <v>110.507625811725</v>
+        <v>110.5076258117248</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.86275261191089</v>
+        <v>60.86275261191079</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1328.402764043477</v>
+        <v>1328.402764043476</v>
       </c>
       <c r="C20" t="n">
         <v>1118.859290984193</v>
       </c>
       <c r="D20" t="n">
-        <v>918.4256118193252</v>
+        <v>918.4256118193249</v>
       </c>
       <c r="E20" t="n">
-        <v>696.0301775333409</v>
+        <v>696.0301775333406</v>
       </c>
       <c r="F20" t="n">
-        <v>454.26927245142</v>
+        <v>454.2692724514199</v>
       </c>
       <c r="G20" t="n">
         <v>210.5555715135167</v>
       </c>
       <c r="H20" t="n">
-        <v>50.12458271873505</v>
+        <v>50.12458271873495</v>
       </c>
       <c r="I20" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J20" t="n">
         <v>121.6962138082455</v>
       </c>
       <c r="K20" t="n">
-        <v>530.7963047773396</v>
+        <v>361.8365858530283</v>
       </c>
       <c r="L20" t="n">
-        <v>1047.641396786597</v>
+        <v>709.7219589379745</v>
       </c>
       <c r="M20" t="n">
-        <v>1440.880563039685</v>
+        <v>1271.920844115374</v>
       </c>
       <c r="N20" t="n">
-        <v>1819.211921727401</v>
+        <v>1650.25220280309</v>
       </c>
       <c r="O20" t="n">
-        <v>2124.216506200235</v>
+        <v>1955.256787275924</v>
       </c>
       <c r="P20" t="n">
-        <v>2390.451223085456</v>
+        <v>2183.413683731977</v>
       </c>
       <c r="Q20" t="n">
-        <v>2484.883476771993</v>
+        <v>2446.805656342825</v>
       </c>
       <c r="R20" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S20" t="n">
         <v>2470.044787010255</v>
@@ -5786,7 +5786,7 @@
         <v>2335.581075671078</v>
       </c>
       <c r="V20" t="n">
-        <v>2170.992087174928</v>
+        <v>2170.992087174929</v>
       </c>
       <c r="W20" t="n">
         <v>1980.847442640438</v>
@@ -5795,7 +5795,7 @@
         <v>1771.20758776984</v>
       </c>
       <c r="Y20" t="n">
-        <v>1550.056017953587</v>
+        <v>1550.056017953586</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>845.5505760717306</v>
+        <v>929.0104300374838</v>
       </c>
       <c r="C21" t="n">
-        <v>683.8469033126853</v>
+        <v>767.3067572784386</v>
       </c>
       <c r="D21" t="n">
-        <v>545.0082663028974</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E21" t="n">
-        <v>397.9802563597686</v>
+        <v>481.4401103255219</v>
       </c>
       <c r="F21" t="n">
         <v>346.7463122753962</v>
@@ -5826,55 +5826,55 @@
         <v>118.0799548453789</v>
       </c>
       <c r="I21" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J21" t="n">
-        <v>49.69766953543986</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K21" t="n">
-        <v>279.1882220956285</v>
+        <v>339.4423686287346</v>
       </c>
       <c r="L21" t="n">
-        <v>645.0100672657442</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M21" t="n">
-        <v>1130.043420775971</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N21" t="n">
-        <v>1641.309066899093</v>
+        <v>1701.563213432199</v>
       </c>
       <c r="O21" t="n">
-        <v>2033.509017683243</v>
+        <v>2093.76316421635</v>
       </c>
       <c r="P21" t="n">
-        <v>2327.111846986399</v>
+        <v>2395.859083492047</v>
       </c>
       <c r="Q21" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R21" t="n">
         <v>2425.099207866938</v>
       </c>
       <c r="S21" t="n">
-        <v>2272.299720879679</v>
+        <v>2272.299720879678</v>
       </c>
       <c r="T21" t="n">
-        <v>2083.614617045664</v>
+        <v>2167.074471011417</v>
       </c>
       <c r="U21" t="n">
-        <v>1865.119824643974</v>
+        <v>1948.579678609727</v>
       </c>
       <c r="V21" t="n">
-        <v>1636.724202092308</v>
+        <v>1720.184056058061</v>
       </c>
       <c r="W21" t="n">
-        <v>1395.408333325618</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X21" t="n">
-        <v>1197.491345203413</v>
+        <v>1280.951199169166</v>
       </c>
       <c r="Y21" t="n">
-        <v>1004.970018852992</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="C22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="D22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="E22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="F22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="G22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="H22" t="n">
-        <v>49.69766953543986</v>
+        <v>56.3297922386753</v>
       </c>
       <c r="I22" t="n">
-        <v>56.32979223867598</v>
+        <v>56.3297922386753</v>
       </c>
       <c r="J22" t="n">
-        <v>56.32979223867598</v>
+        <v>56.3297922386753</v>
       </c>
       <c r="K22" t="n">
-        <v>89.93397998331939</v>
+        <v>89.93397998331871</v>
       </c>
       <c r="L22" t="n">
-        <v>190.5410593835789</v>
+        <v>190.5410593835782</v>
       </c>
       <c r="M22" t="n">
-        <v>308.5345655111806</v>
+        <v>308.5345655111799</v>
       </c>
       <c r="N22" t="n">
-        <v>426.956907260781</v>
+        <v>426.9569072607803</v>
       </c>
       <c r="O22" t="n">
-        <v>525.4205537564707</v>
+        <v>525.42055375647</v>
       </c>
       <c r="P22" t="n">
-        <v>588.3890374846085</v>
+        <v>588.3890374846078</v>
       </c>
       <c r="Q22" t="n">
-        <v>588.3890374846085</v>
+        <v>588.3890374846078</v>
       </c>
       <c r="R22" t="n">
-        <v>588.3890374846085</v>
+        <v>588.3890374846078</v>
       </c>
       <c r="S22" t="n">
-        <v>547.0695604962049</v>
+        <v>547.0695604962042</v>
       </c>
       <c r="T22" t="n">
-        <v>486.2808929197924</v>
+        <v>486.2808929197919</v>
       </c>
       <c r="U22" t="n">
-        <v>371.4809390168011</v>
+        <v>371.4809390168007</v>
       </c>
       <c r="V22" t="n">
-        <v>283.1359201831326</v>
+        <v>283.1359201831322</v>
       </c>
       <c r="W22" t="n">
-        <v>169.3698043084405</v>
+        <v>169.3698043084402</v>
       </c>
       <c r="X22" t="n">
-        <v>110.507625811725</v>
+        <v>110.5076258117248</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.86275261191089</v>
+        <v>60.86275261191079</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328.402764043478</v>
+        <v>1328.402764043476</v>
       </c>
       <c r="C23" t="n">
-        <v>1118.859290984194</v>
+        <v>1118.859290984193</v>
       </c>
       <c r="D23" t="n">
-        <v>918.4256118193264</v>
+        <v>918.4256118193249</v>
       </c>
       <c r="E23" t="n">
-        <v>696.030177533342</v>
+        <v>696.0301775333406</v>
       </c>
       <c r="F23" t="n">
-        <v>454.2692724514211</v>
+        <v>454.2692724514199</v>
       </c>
       <c r="G23" t="n">
-        <v>210.5555715135179</v>
+        <v>210.5555715135167</v>
       </c>
       <c r="H23" t="n">
-        <v>50.12458271873508</v>
+        <v>50.12458271873493</v>
       </c>
       <c r="I23" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J23" t="n">
         <v>290.6559327325569</v>
@@ -5999,40 +5999,40 @@
         <v>1271.920844115374</v>
       </c>
       <c r="N23" t="n">
-        <v>1777.164607834973</v>
+        <v>1650.25220280309</v>
       </c>
       <c r="O23" t="n">
-        <v>2082.169192307806</v>
+        <v>1955.256787275924</v>
       </c>
       <c r="P23" t="n">
-        <v>2310.32608876386</v>
+        <v>2183.413683731977</v>
       </c>
       <c r="Q23" t="n">
-        <v>2404.758342450397</v>
+        <v>2446.805656342825</v>
       </c>
       <c r="R23" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="S23" t="n">
-        <v>2470.044787010257</v>
+        <v>2470.044787010254</v>
       </c>
       <c r="T23" t="n">
-        <v>2418.076126349177</v>
+        <v>2418.076126349175</v>
       </c>
       <c r="U23" t="n">
-        <v>2335.58107567108</v>
+        <v>2335.581075671078</v>
       </c>
       <c r="V23" t="n">
-        <v>2170.99208717493</v>
+        <v>2170.992087174928</v>
       </c>
       <c r="W23" t="n">
-        <v>1980.84744264044</v>
+        <v>1980.847442640438</v>
       </c>
       <c r="X23" t="n">
-        <v>1771.207587769842</v>
+        <v>1771.20758776984</v>
       </c>
       <c r="Y23" t="n">
-        <v>1550.056017953589</v>
+        <v>1550.056017953586</v>
       </c>
     </row>
     <row r="24">
@@ -6060,52 +6060,52 @@
         <v>218.0178122986808</v>
       </c>
       <c r="H24" t="n">
-        <v>118.0799548453789</v>
+        <v>118.0799548453788</v>
       </c>
       <c r="I24" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J24" t="n">
-        <v>109.951816068546</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4423686287347</v>
+        <v>279.1882220956285</v>
       </c>
       <c r="L24" t="n">
-        <v>636.5169772932035</v>
+        <v>645.0100672657441</v>
       </c>
       <c r="M24" t="n">
-        <v>1121.55033080343</v>
+        <v>1121.550330803427</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.815976926552</v>
+        <v>1632.815976926549</v>
       </c>
       <c r="O24" t="n">
-        <v>2025.015927710703</v>
+        <v>2025.0159277107</v>
       </c>
       <c r="P24" t="n">
-        <v>2327.1118469864</v>
+        <v>2327.111846986397</v>
       </c>
       <c r="Q24" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771991</v>
       </c>
       <c r="R24" t="n">
-        <v>2425.09920786694</v>
+        <v>2425.099207866937</v>
       </c>
       <c r="S24" t="n">
-        <v>2272.29972087968</v>
+        <v>2272.299720879677</v>
       </c>
       <c r="T24" t="n">
-        <v>2083.614617045665</v>
+        <v>2167.074471011417</v>
       </c>
       <c r="U24" t="n">
-        <v>1865.119824643976</v>
+        <v>1948.579678609727</v>
       </c>
       <c r="V24" t="n">
-        <v>1636.724202092309</v>
+        <v>1720.184056058061</v>
       </c>
       <c r="W24" t="n">
-        <v>1395.408333325619</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X24" t="n">
         <v>1280.951199169166</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="C25" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="D25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="E25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="F25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="G25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="H25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="I25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="J25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543983</v>
       </c>
       <c r="K25" t="n">
-        <v>89.93397998331939</v>
+        <v>83.30185728008324</v>
       </c>
       <c r="L25" t="n">
-        <v>190.5410593835789</v>
+        <v>183.9089366803427</v>
       </c>
       <c r="M25" t="n">
-        <v>308.5345655111806</v>
+        <v>301.9024428079445</v>
       </c>
       <c r="N25" t="n">
-        <v>426.956907260781</v>
+        <v>420.3247845575448</v>
       </c>
       <c r="O25" t="n">
-        <v>525.4205537564707</v>
+        <v>518.7884310532345</v>
       </c>
       <c r="P25" t="n">
-        <v>588.3890374846085</v>
+        <v>581.7569147813723</v>
       </c>
       <c r="Q25" t="n">
-        <v>588.3890374846085</v>
+        <v>581.7569147813723</v>
       </c>
       <c r="R25" t="n">
-        <v>588.3890374846085</v>
+        <v>588.3890374846078</v>
       </c>
       <c r="S25" t="n">
-        <v>547.0695604962049</v>
+        <v>547.0695604962042</v>
       </c>
       <c r="T25" t="n">
-        <v>486.2808929197924</v>
+        <v>486.2808929197919</v>
       </c>
       <c r="U25" t="n">
-        <v>371.4809390168011</v>
+        <v>371.4809390168007</v>
       </c>
       <c r="V25" t="n">
-        <v>283.1359201831326</v>
+        <v>283.1359201831322</v>
       </c>
       <c r="W25" t="n">
-        <v>169.3698043084405</v>
+        <v>169.3698043084402</v>
       </c>
       <c r="X25" t="n">
-        <v>110.507625811725</v>
+        <v>110.5076258117248</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.86275261191091</v>
+        <v>60.86275261191077</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.242696779854</v>
+        <v>1485.994656762843</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.884862868428</v>
+        <v>1218.636822851417</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.636822851418</v>
+        <v>1218.636822851417</v>
       </c>
       <c r="E26" t="n">
-        <v>938.4270277132912</v>
+        <v>938.4270277132903</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8517617792277</v>
+        <v>638.851761779227</v>
       </c>
       <c r="G26" t="n">
-        <v>337.323699989182</v>
+        <v>337.3236999891817</v>
       </c>
       <c r="H26" t="n">
         <v>119.0783503422577</v>
       </c>
       <c r="I26" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327526</v>
+        <v>245.1314844327525</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306615</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.748957268734</v>
+        <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
         <v>1563.283987374949</v>
@@ -6248,28 +6248,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T26" t="n">
-        <v>2859.417743213906</v>
+        <v>2922.554184181397</v>
       </c>
       <c r="U26" t="n">
-        <v>2719.108331683668</v>
+        <v>2782.244772651157</v>
       </c>
       <c r="V26" t="n">
-        <v>2719.108331683668</v>
+        <v>2559.841423302865</v>
       </c>
       <c r="W26" t="n">
-        <v>2471.149326297035</v>
+        <v>2311.882417916232</v>
       </c>
       <c r="X26" t="n">
-        <v>2302.676242210502</v>
+        <v>2044.428202193492</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.710311542107</v>
+        <v>1765.462271525096</v>
       </c>
     </row>
     <row r="27">
@@ -6294,13 +6294,13 @@
         <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>214.4446016099565</v>
+        <v>229.1572190700611</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I27" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J27" t="n">
         <v>121.0912228399263</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901133</v>
+        <v>358.478573190114</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075599</v>
+        <v>303.4385284075609</v>
       </c>
       <c r="D28" t="n">
-        <v>264.942559991089</v>
+        <v>264.9425599910901</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081742</v>
+        <v>227.5094705081754</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897177</v>
+        <v>189.6047402897188</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2609164133341</v>
+        <v>135.2609164133353</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837477</v>
+        <v>90.46419594837539</v>
       </c>
       <c r="I28" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J28" t="n">
         <v>114.2708406219772</v>
@@ -6388,46 +6388,46 @@
         <v>260.1708922197473</v>
       </c>
       <c r="L28" t="n">
-        <v>473.073835473133</v>
+        <v>473.0738354731334</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538612</v>
+        <v>703.3632054538618</v>
       </c>
       <c r="N28" t="n">
-        <v>934.081411056588</v>
+        <v>934.0814110565889</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.840921405404</v>
+        <v>1144.840921405405</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.105268986669</v>
+        <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586276</v>
+        <v>1394.630684586277</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.684827956421</v>
+        <v>1359.684827956422</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115875</v>
+        <v>1260.550990115876</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.94796168732</v>
+        <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321864</v>
+        <v>969.3336469321872</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463754</v>
+        <v>823.1742672463762</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195409</v>
+        <v>651.5937905195418</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706831</v>
+        <v>534.917251170684</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187267</v>
+        <v>427.4580171187275</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1525.99734713293</v>
+        <v>1422.858215795352</v>
       </c>
       <c r="C29" t="n">
-        <v>1258.639513221503</v>
+        <v>1218.636822851418</v>
       </c>
       <c r="D29" t="n">
-        <v>1000.391473204493</v>
+        <v>1218.636822851418</v>
       </c>
       <c r="E29" t="n">
-        <v>720.1816780663667</v>
+        <v>938.4270277132912</v>
       </c>
       <c r="F29" t="n">
-        <v>420.6064121323034</v>
+        <v>638.8517617792278</v>
       </c>
       <c r="G29" t="n">
-        <v>119.0783503422578</v>
+        <v>337.3236999891821</v>
       </c>
       <c r="H29" t="n">
         <v>119.0783503422578</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J29" t="n">
-        <v>245.1314844327525</v>
+        <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306618</v>
+        <v>597.567720330662</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6473,7 +6473,7 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O29" t="n">
         <v>2471.211658241752</v>
@@ -6482,31 +6482,31 @@
         <v>2811.664418550932</v>
       </c>
       <c r="Q29" t="n">
-        <v>3018.392536090596</v>
+        <v>3018.392536090595</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>2859.417743213906</v>
+        <v>2859.417743213905</v>
       </c>
       <c r="U29" t="n">
-        <v>2719.108331683667</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2599.844113672951</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W29" t="n">
-        <v>2351.885108286318</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X29" t="n">
-        <v>2084.430892563578</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y29" t="n">
-        <v>1805.464961895183</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="30">
@@ -6531,13 +6531,13 @@
         <v>357.8857190467766</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700612</v>
+        <v>229.1572190700611</v>
       </c>
       <c r="H30" t="n">
         <v>129.2193616167592</v>
       </c>
       <c r="I30" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J30" t="n">
         <v>121.0912228399263</v>
@@ -6564,25 +6564,25 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R30" t="n">
-        <v>2504.985851143967</v>
+        <v>2519.698468604072</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.186364156707</v>
+        <v>2366.898981616812</v>
       </c>
       <c r="T30" t="n">
-        <v>2163.501260322693</v>
+        <v>2178.213877782798</v>
       </c>
       <c r="U30" t="n">
-        <v>1945.006467921003</v>
+        <v>1959.719085381108</v>
       </c>
       <c r="V30" t="n">
-        <v>1716.610845369337</v>
+        <v>1731.323462829442</v>
       </c>
       <c r="W30" t="n">
-        <v>1475.294976602647</v>
+        <v>1490.007594062752</v>
       </c>
       <c r="X30" t="n">
-        <v>1277.377988480441</v>
+        <v>1292.090605940546</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.569279590125</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901139</v>
+        <v>358.4785731901141</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075606</v>
+        <v>303.4385284075608</v>
       </c>
       <c r="D31" t="n">
         <v>264.9425599910899</v>
@@ -6610,28 +6610,28 @@
         <v>189.6047402897186</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2609164133351</v>
+        <v>135.260916413335</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837522</v>
+        <v>90.46419594837525</v>
       </c>
       <c r="I31" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219774</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197476</v>
+        <v>260.1708922197477</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731334</v>
+        <v>473.0738354731338</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538623</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565891</v>
+        <v>934.0814110565892</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405405</v>
@@ -6652,19 +6652,19 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321872</v>
+        <v>969.3336469321874</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463762</v>
+        <v>823.1742672463764</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195417</v>
+        <v>651.5937905195419</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706838</v>
+        <v>534.917251170684</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187274</v>
+        <v>427.4580171187275</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1545.026613203302</v>
+        <v>1545.026613203301</v>
       </c>
       <c r="C32" t="n">
         <v>1305.833507158455</v>
       </c>
       <c r="D32" t="n">
-        <v>1075.750195008025</v>
+        <v>1075.750195008024</v>
       </c>
       <c r="E32" t="n">
-        <v>823.7051277364781</v>
+        <v>823.7051277364773</v>
       </c>
       <c r="F32" t="n">
-        <v>552.2945896689946</v>
+        <v>552.2945896689939</v>
       </c>
       <c r="G32" t="n">
-        <v>278.9312557455287</v>
+        <v>278.9312557455282</v>
       </c>
       <c r="H32" t="n">
-        <v>88.8506339651842</v>
+        <v>88.85063396518407</v>
       </c>
       <c r="I32" t="n">
-        <v>58.77408779632638</v>
+        <v>58.77408779632636</v>
       </c>
       <c r="J32" t="n">
-        <v>270.6727457042935</v>
+        <v>270.6727457042936</v>
       </c>
       <c r="K32" t="n">
-        <v>650.7132313842377</v>
+        <v>510.8131177490764</v>
       </c>
       <c r="L32" t="n">
-        <v>998.598604469184</v>
+        <v>928.8741466869958</v>
       </c>
       <c r="M32" t="n">
-        <v>1531.737884357433</v>
+        <v>1462.013426575245</v>
       </c>
       <c r="N32" t="n">
-        <v>2049.969356680311</v>
+        <v>1980.244898898123</v>
       </c>
       <c r="O32" t="n">
-        <v>2494.874054788306</v>
+        <v>2425.149597006118</v>
       </c>
       <c r="P32" t="n">
-        <v>2723.03095124436</v>
+        <v>2653.306493462172</v>
       </c>
       <c r="Q32" t="n">
-        <v>2887.638860783871</v>
+        <v>2887.63886078387</v>
       </c>
       <c r="R32" t="n">
-        <v>2938.704389816319</v>
+        <v>2938.704389816318</v>
       </c>
       <c r="S32" t="n">
-        <v>2894.216067069019</v>
+        <v>2894.216067069018</v>
       </c>
       <c r="T32" t="n">
         <v>2812.597773422376</v>
       </c>
       <c r="U32" t="n">
-        <v>2700.453089758716</v>
+        <v>2700.453089758715</v>
       </c>
       <c r="V32" t="n">
-        <v>2506.214468277004</v>
+        <v>2506.214468277003</v>
       </c>
       <c r="W32" t="n">
-        <v>2286.420190756951</v>
+        <v>2286.42019075695</v>
       </c>
       <c r="X32" t="n">
-        <v>2047.130702900791</v>
+        <v>2047.13070290079</v>
       </c>
       <c r="Y32" t="n">
-        <v>1796.329500098975</v>
+        <v>1796.329500098974</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>938.0868482983705</v>
+        <v>923.3742308382659</v>
       </c>
       <c r="C33" t="n">
-        <v>776.3831755393252</v>
+        <v>761.6705580792207</v>
       </c>
       <c r="D33" t="n">
-        <v>637.5445385295372</v>
+        <v>622.8319210694327</v>
       </c>
       <c r="E33" t="n">
-        <v>490.5165285864084</v>
+        <v>475.8039111263039</v>
       </c>
       <c r="F33" t="n">
-        <v>355.8227305362827</v>
+        <v>341.1101130761783</v>
       </c>
       <c r="G33" t="n">
-        <v>227.0942305595673</v>
+        <v>212.3816130994629</v>
       </c>
       <c r="H33" t="n">
         <v>127.1563731062654</v>
       </c>
       <c r="I33" t="n">
-        <v>58.77408779632638</v>
+        <v>58.77408779632636</v>
       </c>
       <c r="J33" t="n">
         <v>119.0282343294325</v>
@@ -6816,13 +6816,13 @@
         <v>1714.547856858843</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.944605552258</v>
+        <v>1473.231988092153</v>
       </c>
       <c r="X33" t="n">
-        <v>1290.027617430052</v>
+        <v>1275.314999969948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.506291079631</v>
+        <v>1082.793673619527</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.2624896135619</v>
+        <v>159.2624896135611</v>
       </c>
       <c r="C34" t="n">
-        <v>132.3871726975884</v>
+        <v>132.3871726975876</v>
       </c>
       <c r="D34" t="n">
-        <v>122.0559321476972</v>
+        <v>122.0559321476966</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7875705313622</v>
+        <v>112.7875705313618</v>
       </c>
       <c r="F34" t="n">
-        <v>103.0475681794855</v>
+        <v>103.0475681794852</v>
       </c>
       <c r="G34" t="n">
-        <v>76.8684721696817</v>
+        <v>76.86847216968144</v>
       </c>
       <c r="H34" t="n">
-        <v>60.23647957130169</v>
+        <v>60.23647957130155</v>
       </c>
       <c r="I34" t="n">
-        <v>58.77408779632638</v>
+        <v>58.77408779632636</v>
       </c>
       <c r="J34" t="n">
-        <v>130.0725776942518</v>
+        <v>139.8121018935186</v>
       </c>
       <c r="K34" t="n">
-        <v>163.6767654388952</v>
+        <v>173.416289638162</v>
       </c>
       <c r="L34" t="n">
-        <v>264.2838448391547</v>
+        <v>413.9234826735831</v>
       </c>
       <c r="M34" t="n">
-        <v>522.1774646019179</v>
+        <v>531.9169888011849</v>
       </c>
       <c r="N34" t="n">
-        <v>640.5998063515183</v>
+        <v>650.3393305507852</v>
       </c>
       <c r="O34" t="n">
-        <v>878.9635664823694</v>
+        <v>748.8029770464749</v>
       </c>
       <c r="P34" t="n">
-        <v>941.9320502105072</v>
+        <v>839.8023848288632</v>
       </c>
       <c r="Q34" t="n">
-        <v>941.9320502105072</v>
+        <v>941.9320502105054</v>
       </c>
       <c r="R34" t="n">
-        <v>935.1509214472316</v>
+        <v>935.1509214472298</v>
       </c>
       <c r="S34" t="n">
-        <v>864.1818114732653</v>
+        <v>864.1818114732637</v>
       </c>
       <c r="T34" t="n">
-        <v>773.7435109112903</v>
+        <v>773.7435109112888</v>
       </c>
       <c r="U34" t="n">
-        <v>629.2939240227363</v>
+        <v>629.2939240227349</v>
       </c>
       <c r="V34" t="n">
-        <v>511.2992722035051</v>
+        <v>511.2992722035038</v>
       </c>
       <c r="W34" t="n">
-        <v>367.8835233432504</v>
+        <v>367.8835233432492</v>
       </c>
       <c r="X34" t="n">
-        <v>279.3717118609723</v>
+        <v>279.3717118609712</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.0772056755956</v>
+        <v>200.0772056755946</v>
       </c>
     </row>
     <row r="35">
@@ -6911,70 +6911,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478538</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614929</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791955</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409157</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>643.51631097208</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L35" t="n">
-        <v>991.4016840570263</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M35" t="n">
-        <v>1549.108624801147</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N35" t="n">
-        <v>1927.439983488862</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O35" t="n">
-        <v>2232.444567961696</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.601464417749</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W35" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
         <v>1813.858934499875</v>
@@ -7038,13 +7038,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
         <v>1949.982683436373</v>
@@ -7087,34 +7087,34 @@
         <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208573</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="J37" t="n">
-        <v>79.39795846875474</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="K37" t="n">
-        <v>113.0021462133981</v>
+        <v>116.1058776941454</v>
       </c>
       <c r="L37" t="n">
-        <v>213.6092256136577</v>
+        <v>216.7129570944049</v>
       </c>
       <c r="M37" t="n">
-        <v>331.6027317412594</v>
+        <v>334.7064632220066</v>
       </c>
       <c r="N37" t="n">
-        <v>450.0250734908598</v>
+        <v>453.128804971607</v>
       </c>
       <c r="O37" t="n">
-        <v>548.4887199865494</v>
+        <v>551.5924514672967</v>
       </c>
       <c r="P37" t="n">
-        <v>611.4572037146872</v>
+        <v>614.5609351954345</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>614.5609351954345</v>
       </c>
       <c r="R37" t="n">
         <v>629.3786802696717</v>
@@ -7169,31 +7169,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1384.640850310114</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O38" t="n">
-        <v>2067.976793470664</v>
+        <v>2116.635622160322</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,16 +7275,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
         <v>1721.587060884707</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q40" t="n">
         <v>629.3786802696717</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7412,25 +7412,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1433.299678999773</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N41" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926717</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C43" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="D43" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="E43" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="F43" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="G43" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="D43" t="n">
+      <c r="H43" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="E43" t="n">
+      <c r="I43" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="F43" t="n">
-        <v>56.26358779153714</v>
-      </c>
-      <c r="G43" t="n">
-        <v>55.15097566691941</v>
-      </c>
-      <c r="H43" t="n">
-        <v>55.15097566691941</v>
-      </c>
-      <c r="I43" t="n">
-        <v>78.28534634413701</v>
-      </c>
       <c r="J43" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>111.8895340887804</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>212.4966134890399</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>330.4901196166417</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>448.912461366242</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>547.3761078619317</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q43" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R43" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S43" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T43" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V43" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670033</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X43" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
         <v>469.4217245791957</v>
@@ -7646,10 +7646,10 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L44" t="n">
         <v>1040.060512746685</v>
@@ -7658,13 +7658,13 @@
         <v>1433.299678999773</v>
       </c>
       <c r="N44" t="n">
-        <v>1851.806793600545</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q44" t="n">
         <v>2479.400528215969</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583246</v>
@@ -7749,7 +7749,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S45" t="n">
         <v>2357.162579672078</v>
@@ -7786,46 +7786,46 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="F46" t="n">
-        <v>66.12215891288227</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="G46" t="n">
-        <v>65.00954678826454</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="H46" t="n">
-        <v>73.27619169846319</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="I46" t="n">
-        <v>96.20682289912145</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912145</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437649</v>
+        <v>98.03426197503406</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440244</v>
+        <v>198.6413413752936</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716261</v>
+        <v>316.6348475028953</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212265</v>
+        <v>435.0571892524957</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169162</v>
+        <v>533.5208357481854</v>
       </c>
       <c r="P46" t="n">
-        <v>628.266068145054</v>
+        <v>596.4893194763232</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R46" t="n">
         <v>628.266068145054</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7988,7 +7988,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>561.8296044349132</v>
+        <v>539.169291895791</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -7997,7 +7997,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,13 +8064,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>528.0106487414283</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>606.2309859515262</v>
+        <v>561.7333914068129</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8222,13 +8222,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>482.2600814051302</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>392.932723506017</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8292,16 +8292,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>179.4708129861088</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>363.6577212424766</v>
       </c>
       <c r="N6" t="n">
         <v>606.2309859515262</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,7 +8538,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8769,13 +8769,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>274.3631550803444</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>535.9749298389912</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -9018,13 +9018,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>442.5793620237397</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>203.6588210205944</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.6588210205953</v>
+        <v>203.6588210205944</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9495,10 +9495,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>405.4227204717748</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>203.6588210205944</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,16 +9714,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>412.65079585849</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>596.8377041148552</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -11388,7 +11388,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.021015059748</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>38.73038067859768</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>259.7942345702904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>281.5363721401959</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>98.83782993042374</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>220.1915711039055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>143.0349923683876</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>249.6080902862167</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>268.9083485189633</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>280.3049463151621</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.7765559604979</v>
+        <v>39.81259454204368</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>58.61831928817821</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.65435786972233</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>280.8016135680806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>53.62369325348286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.78753624853361</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>112.8138662515406</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>143.0349923683876</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>224.3079908082597</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>268.9083485189632</v>
+        <v>268.9083485189633</v>
       </c>
       <c r="Y14" t="n">
-        <v>280.304946315162</v>
+        <v>3.420437692379405</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>98.4309138302211</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>98.4309138302211</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24494,19 +24494,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>62.50507655781605</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>97.99132031984539</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24680,10 +24680,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>62.50507655781666</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>102.107740024201</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761191.2410068485</v>
+        <v>761191.2410068484</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844386.4665435997</v>
+        <v>844386.4665436</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816527.4456401472</v>
+        <v>816527.445640147</v>
       </c>
     </row>
     <row r="12">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>498955.639321218</v>
+      </c>
+      <c r="C2" t="n">
+        <v>498955.6393212181</v>
+      </c>
+      <c r="D2" t="n">
         <v>498955.6393212182</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>449794.82423132</v>
+      </c>
+      <c r="F2" t="n">
+        <v>449794.8242313204</v>
+      </c>
+      <c r="G2" t="n">
         <v>498955.6393212182</v>
       </c>
-      <c r="D2" t="n">
-        <v>498955.6393212181</v>
-      </c>
-      <c r="E2" t="n">
-        <v>449794.8242313202</v>
-      </c>
-      <c r="F2" t="n">
-        <v>449794.8242313202</v>
-      </c>
-      <c r="G2" t="n">
-        <v>498955.6393212184</v>
-      </c>
       <c r="H2" t="n">
-        <v>498955.6393212184</v>
+        <v>498955.6393212183</v>
       </c>
       <c r="I2" t="n">
         <v>498955.6393212182</v>
       </c>
       <c r="J2" t="n">
-        <v>482493.4906055427</v>
+        <v>482493.4906055419</v>
       </c>
       <c r="K2" t="n">
         <v>482493.4906055421</v>
       </c>
       <c r="L2" t="n">
-        <v>498955.6393212173</v>
+        <v>498955.6393212193</v>
       </c>
       <c r="M2" t="n">
         <v>498955.6393212183</v>
@@ -26353,7 +26353,7 @@
         <v>498955.6393212185</v>
       </c>
       <c r="P2" t="n">
-        <v>498955.6393212185</v>
+        <v>498955.6393212184</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>8010.3265126836</v>
       </c>
       <c r="E3" t="n">
-        <v>116080.0978984154</v>
+        <v>116080.0978984153</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>49091.91375765709</v>
+        <v>49091.91375765717</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71398.37822798827</v>
+        <v>71398.37822798846</v>
       </c>
       <c r="M3" t="n">
-        <v>19852.65523706739</v>
+        <v>19852.6552370673</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41652.21864890989</v>
+        <v>41652.21864890979</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,25 +26421,25 @@
         <v>192725.694374503</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
         <v>134251.7556368557</v>
       </c>
       <c r="F4" t="n">
-        <v>134251.7556368557</v>
+        <v>134251.7556368556</v>
       </c>
       <c r="G4" t="n">
         <v>177182.3714644569</v>
       </c>
       <c r="H4" t="n">
-        <v>177182.3714644568</v>
+        <v>177182.3714644569</v>
       </c>
       <c r="I4" t="n">
-        <v>177182.3714644568</v>
+        <v>177182.3714644569</v>
       </c>
       <c r="J4" t="n">
-        <v>161896.3971701088</v>
+        <v>161896.3971701087</v>
       </c>
       <c r="K4" t="n">
         <v>161896.3971701087</v>
@@ -26448,10 +26448,10 @@
         <v>176106.8835394372</v>
       </c>
       <c r="M4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
         <v>175623.1205402357</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63998.16336893612</v>
+        <v>63998.16336893613</v>
       </c>
       <c r="C5" t="n">
         <v>63998.16336893612</v>
@@ -26476,28 +26476,28 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46959.09585638227</v>
+        <v>46959.09585638226</v>
       </c>
       <c r="F5" t="n">
         <v>46959.09585638226</v>
       </c>
       <c r="G5" t="n">
-        <v>52117.98097849787</v>
+        <v>52117.98097849786</v>
       </c>
       <c r="H5" t="n">
         <v>52117.98097849786</v>
       </c>
       <c r="I5" t="n">
-        <v>52117.98097849789</v>
+        <v>52117.98097849784</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729294</v>
+        <v>55772.13857729291</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729293</v>
+        <v>55772.13857729291</v>
       </c>
       <c r="L5" t="n">
-        <v>56548.37001126298</v>
+        <v>56548.37001126297</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74832.53309277935</v>
+        <v>74832.53309277914</v>
       </c>
       <c r="C6" t="n">
-        <v>242231.7815777791</v>
+        <v>242231.7815777789</v>
       </c>
       <c r="D6" t="n">
-        <v>239603.51883833</v>
+        <v>239603.5188383301</v>
       </c>
       <c r="E6" t="n">
-        <v>152503.8748396669</v>
+        <v>152314.7947816287</v>
       </c>
       <c r="F6" t="n">
-        <v>268583.9727380822</v>
+        <v>268394.8926800445</v>
       </c>
       <c r="G6" t="n">
-        <v>220563.3731206065</v>
+        <v>220563.3731206063</v>
       </c>
       <c r="H6" t="n">
-        <v>269655.2868782637</v>
+        <v>269655.2868782636</v>
       </c>
       <c r="I6" t="n">
         <v>269655.2868782635</v>
       </c>
       <c r="J6" t="n">
-        <v>56045.42567431158</v>
+        <v>55982.10971771206</v>
       </c>
       <c r="K6" t="n">
-        <v>264824.9548581405</v>
+        <v>264761.6389015417</v>
       </c>
       <c r="L6" t="n">
-        <v>194902.0075425289</v>
+        <v>194902.0075425306</v>
       </c>
       <c r="M6" t="n">
         <v>250677.046651269</v>
@@ -26558,10 +26558,10 @@
         <v>270529.7018883363</v>
       </c>
       <c r="O6" t="n">
-        <v>228877.4832394266</v>
+        <v>228877.4832394267</v>
       </c>
       <c r="P6" t="n">
-        <v>270529.7018883365</v>
+        <v>270529.7018883363</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>109.3014905547583</v>
       </c>
       <c r="G2" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="H2" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="I2" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.515844883818</v>
       </c>
       <c r="C4" t="n">
         <v>499.5158448838179</v>
@@ -26796,34 +26796,34 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>621.2208691929983</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="F4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="G4" t="n">
-        <v>621.2208691929983</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="H4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="I4" t="n">
-        <v>621.2208691929985</v>
+        <v>621.2208691929978</v>
       </c>
       <c r="J4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.4634538352519</v>
       </c>
       <c r="K4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.4634538352519</v>
       </c>
       <c r="L4" t="n">
-        <v>734.6760974540797</v>
+        <v>734.6760974540795</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260716</v>
@@ -26917,10 +26917,10 @@
         <v>109.3014905547583</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>61.36489219707137</v>
+        <v>61.36489219707147</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.06527331113736</v>
+        <v>52.06527331113723</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>89.24797278498534</v>
+        <v>89.24797278498558</v>
       </c>
       <c r="M2" t="n">
-        <v>24.81581904633424</v>
+        <v>24.81581904633413</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.06527331113736</v>
+        <v>52.06527331113723</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.515844883818</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>25.78735638117246</v>
       </c>
       <c r="E4" t="n">
-        <v>95.91766792800797</v>
+        <v>95.91766792800775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260721</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>109.3014905547583</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>61.36489219707137</v>
+        <v>61.36489219707147</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.06527331113736</v>
+        <v>52.06527331113723</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.515844883818</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>25.78735638117246</v>
       </c>
       <c r="M4" t="n">
-        <v>95.91766792800797</v>
+        <v>95.91766792800775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52.16898891176914</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>107.9506161543494</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>89.92373735999028</v>
+        <v>20.23169199640668</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.3884301890143789</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339677</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>271.3911730069217</v>
+        <v>34.92403266365085</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50.40203911921508</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>153.884082344855</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>84.47274464650233</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>99.71558964164933</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>175.8627908268359</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>103.9964927400587</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>88.51861606513748</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>91.98767949870322</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>2.191382378884214</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28071,7 +28071,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28111,13 +28111,13 @@
         <v>109.3014905547583</v>
       </c>
       <c r="J11" t="n">
+        <v>51.89073871733153</v>
+      </c>
+      <c r="K11" t="n">
         <v>109.3014905547583</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>109.3014905547583</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,16 +28126,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>109.3014905547583</v>
       </c>
-      <c r="P11" t="n">
-        <v>32.32115180167852</v>
-      </c>
       <c r="Q11" t="n">
-        <v>109.3014905547583</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>109.3014905547583</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>109.3014905547583</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14.92679296925567</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>23.43882921009234</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28348,25 +28348,25 @@
         <v>109.3014905547583</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>109.3014905547583</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>109.3014905547583</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>109.3014905547583</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>32.32115180167801</v>
-      </c>
       <c r="P14" t="n">
-        <v>109.3014905547583</v>
+        <v>32.32115180167762</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>82.62525542609617</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28463,7 +28463,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>82.62525542609558</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="D17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="E17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="F17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="G17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="H17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="I17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>128.1943485170519</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,37 +28600,37 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>128.1943485170528</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>170.6663827518297</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="S17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y17" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>82.62525542609529</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28703,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>82.62525542609598</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28737,7 +28737,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>164.4780326101709</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
@@ -28746,7 +28746,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
-        <v>6.69911384165264</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T19" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U19" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V19" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W19" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X19" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y19" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="20">
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="D20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="E20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="F20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="G20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="H20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="I20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>170.6663827518297</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.6663827518297</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>38.46244487794741</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>128.1943485170515</v>
       </c>
       <c r="S20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="21">
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.62525542609578</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>82.62525542609625</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28974,10 +28974,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>164.4780326101709</v>
       </c>
       <c r="I22" t="n">
-        <v>149.4601277950009</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="D23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="E23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="F23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="G23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="H23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="I23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="J23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>128.1943485170535</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="R23" t="n">
-        <v>170.6663827518297</v>
+        <v>128.1943485170506</v>
       </c>
       <c r="S23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y23" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="24">
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>82.62525542609714</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>82.62525542609434</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>158.2402880821675</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29241,28 +29241,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>154.7256774134176</v>
       </c>
       <c r="S25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="T25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="U25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="V25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="W25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="X25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.6663827518297</v>
+        <v>170.6663827518298</v>
       </c>
     </row>
     <row r="26">
@@ -29320,7 +29320,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082079</v>
       </c>
       <c r="S26" t="n">
         <v>113.4301655082087</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550359</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.430165508209</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.5654912855039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="C32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="D32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="E32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="F32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="G32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="H32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="I32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="J32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="K32" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>70.88450086158912</v>
       </c>
       <c r="M32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="N32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="O32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.88450086159054</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="R32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="S32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="T32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="U32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="V32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="W32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="X32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>14.5654912855035</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="C34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="D34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="E34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="F34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="G34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="I34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="J34" t="n">
-        <v>131.4753428645401</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M34" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>28.31406470126313</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="R34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="S34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="T34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="U34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="V34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="W34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="X34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
     </row>
     <row r="35">
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>116.9787331327005</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
+        <v>40.58157162934941</v>
+      </c>
+      <c r="Q35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30159,13 +30159,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J37" t="n">
-        <v>88.03978145923062</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>162.9939828386719</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30247,28 +30247,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>116.9787331327004</v>
-      </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>40.58157162934955</v>
+      </c>
+      <c r="R38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30399,13 +30399,13 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>23.3175656408443</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30484,28 +30484,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>116.9787331327007</v>
+      </c>
+      <c r="N41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L41" t="n">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>40.58157162934918</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>156.1709124946336</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30636,7 +30636,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,19 +30718,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.58157162934924</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R44" t="n">
         <v>166.1290651424569</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S45" t="n">
-        <v>14.56549128550395</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30858,22 +30858,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>165.9232676913869</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>52.14719229016735</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34708,7 +34708,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>375.4314902626831</v>
+        <v>352.771177723561</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34717,7 +34717,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,13 +34784,13 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>412.5267461797885</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>499.5158448838179</v>
+        <v>455.0182503391046</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34942,13 +34942,13 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>295.1037669079711</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>205.9779267258965</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>66.89537941496098</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>248.1738186808367</v>
       </c>
       <c r="N6" t="n">
         <v>499.5158448838179</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,7 +35258,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.0272928505216</v>
+        <v>124.6165410130948</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>351.8675229232257</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>460.7008573072292</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35422,16 +35422,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>417.3869294162067</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>262.7826633734495</v>
+        <v>339.7630021265292</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.6876053896442</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>19.56958691565313</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>162.3669859136777</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>489.93268031336</v>
+        <v>420.4910272773513</v>
       </c>
       <c r="N12" t="n">
         <v>516.4299455789112</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.84482435478932</v>
+        <v>49.84482435478929</v>
       </c>
       <c r="K13" t="n">
         <v>143.2451145392466</v>
       </c>
       <c r="L13" t="n">
-        <v>210.924803080273</v>
+        <v>210.9248030802729</v>
       </c>
       <c r="M13" t="n">
         <v>228.4868502796085</v>
@@ -35586,7 +35586,7 @@
         <v>172.9060195730793</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.14952262191046</v>
+        <v>71.14952262191044</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>182.0272928505216</v>
       </c>
       <c r="K14" t="n">
-        <v>351.8675229232257</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>506.5127695982815</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>491.4543781181076</v>
       </c>
       <c r="O14" t="n">
-        <v>340.4065906631265</v>
+        <v>417.3869294162067</v>
       </c>
       <c r="P14" t="n">
-        <v>339.7630021265293</v>
+        <v>262.7826633734485</v>
       </c>
       <c r="Q14" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>19.56958691565315</v>
+        <v>19.56958691565313</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>326.7199134126286</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>89.92362957570191</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.84482435478933</v>
+        <v>49.84482435478932</v>
       </c>
       <c r="K16" t="n">
         <v>143.2451145392466</v>
@@ -35811,19 +35811,19 @@
         <v>210.924803080273</v>
       </c>
       <c r="M16" t="n">
-        <v>228.4868502796086</v>
+        <v>228.4868502796085</v>
       </c>
       <c r="N16" t="n">
         <v>228.9200175745567</v>
       </c>
       <c r="O16" t="n">
-        <v>208.7597193382833</v>
+        <v>208.7597193382832</v>
       </c>
       <c r="P16" t="n">
         <v>172.9060195730793</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.14952262191048</v>
+        <v>71.14952262191046</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>200.9201508128152</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>522.0657495043007</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
@@ -35896,16 +35896,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>436.2797873785012</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>401.1278943236006</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>80.93447911272452</v>
+        <v>80.9344791127246</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.92362957570283</v>
+        <v>89.92362957570191</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36033,7 +36033,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.699113841651973</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.64273782614094</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
         <v>101.6233125255146</v>
@@ -36121,13 +36121,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>413.2324151202971</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0657495043006</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>567.877661795353</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36136,13 +36136,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>268.9239564497183</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>266.0524975867156</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>38.46244487794634</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36215,10 +36215,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>296.5685144476315</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>89.92362957570191</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36270,10 +36270,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.699113841651973</v>
       </c>
       <c r="I22" t="n">
-        <v>6.699113841652648</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>243.392185047593</v>
+        <v>243.3921850475931</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
@@ -36367,7 +36367,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>510.3472360804028</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
@@ -36376,10 +36376,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>266.0524975867156</v>
       </c>
       <c r="R23" t="n">
-        <v>80.93447911272452</v>
+        <v>38.46244487794542</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>300.0753622873422</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>481.3538015532153</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36495,7 +36495,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.699113841652618</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.699113841652015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910276</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,16 +36844,16 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799799</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.039048391886</v>
+        <v>214.0390483918861</v>
       </c>
       <c r="K32" t="n">
-        <v>383.8792784645901</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>422.2838676140601</v>
       </c>
       <c r="M32" t="n">
-        <v>538.5245251396459</v>
+        <v>538.524525139646</v>
       </c>
       <c r="N32" t="n">
-        <v>523.4661336594719</v>
+        <v>523.466133659472</v>
       </c>
       <c r="O32" t="n">
-        <v>449.3986849575712</v>
+        <v>449.3986849575713</v>
       </c>
       <c r="P32" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>166.2706156964764</v>
+        <v>236.6993609310087</v>
       </c>
       <c r="R32" t="n">
-        <v>51.58134245701751</v>
+        <v>51.58134245701763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.01867666457112</v>
+        <v>81.85657989615382</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>242.9365586216375</v>
       </c>
       <c r="M34" t="n">
-        <v>260.4986058209729</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>240.7714748796476</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>91.91859371958414</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>103.161278163275</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>359.5447655011679</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011203</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37455,13 +37455,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J37" t="n">
-        <v>28.58311525926163</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>14.96741926690629</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>514.1900121762236</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>135.9676864642354</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>57.2611896253326</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
         <v>101.6233125255146</v>
@@ -37719,7 +37719,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762238</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>271.0430832011201</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.215064070152944</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L44" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>422.7344591926985</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38035,7 +38035,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R44" t="n">
         <v>76.39716150335175</v>
@@ -38108,10 +38108,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
-        <v>396.161566448637</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q45" t="n">
         <v>159.3652826117113</v>
@@ -38154,22 +38154,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.16225373803864</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38193,10 +38193,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>13.9952243573195</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
